--- a/xlsx/失业_intext.xlsx
+++ b/xlsx/失业_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>失业</t>
   </si>
@@ -29,19 +29,19 @@
     <t>墨西哥</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_失业</t>
+    <t>政策_政策_货币政策_失业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD</t>
   </si>
   <si>
-    <t>職業</t>
+    <t>职业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E5%8C%96</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%89%A9</t>
   </si>
   <si>
-    <t>人口過剩</t>
+    <t>人口过剩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%8A%B3%E5%B7%A5%E7%BB%84%E7%BB%87</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E6%A9%9F</t>
   </si>
   <si>
-    <t>蒸汽機</t>
+    <t>蒸汽机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%94%E5%B8%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>織布機</t>
+    <t>织布机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E7%81%AF</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E6%89%8B%E8%87%82</t>
   </si>
   <si>
-    <t>機械手臂</t>
+    <t>机械手臂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ETC</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E9%A7%95%E9%A7%9B%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>自動駕駛汽車</t>
+    <t>自动驾驶汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%BE%B7%E8%BF%90%E5%8A%A8</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E9%80%A3%E7%B6%B2</t>
   </si>
   <si>
-    <t>互連網</t>
+    <t>互连网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E5%AF%8C%E5%B7%AE%E8%B7%9D</t>
   </si>
   <si>
-    <t>貧富差距</t>
+    <t>贫富差距</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E4%B8%9A%E5%B8%82%E5%9C%BA</t>
@@ -155,25 +155,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E8%94%BD%E9%9D%92%E5%B9%B4</t>
   </si>
   <si>
-    <t>隱蔽青年</t>
+    <t>隐蔽青年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E6%80%A7%E5%A4%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>結構性失業</t>
+    <t>结构性失业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
+    <t>竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%93%A6%E6%80%A7%E5%A4%B1%E4%B8%9A</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
+    <t>经济学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%B8%B8</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>總需求</t>
+    <t>总需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%91%A8%E6%9C%9F</t>
@@ -233,31 +233,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>財政政策</t>
+    <t>财政政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE</t>
   </si>
   <si>
-    <t>馬歇爾</t>
+    <t>马歇尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%8E%9F%E7%90%86</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%95%88%E7%94%A8</t>
   </si>
   <si>
-    <t>邊際效用</t>
+    <t>边际效用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%A6%81%E7%B4%A0</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當斯密</t>
+    <t>亚当斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B5%84</t>
@@ -323,25 +323,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>市場</t>
+    <t>市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -371,9 +371,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
-    <t>经济学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
   </si>
   <si>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>健康保險</t>
+    <t>健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%9A%B4%E5%8A%9B</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%8C%E6%9C%9B%E9%97%9C%E6%87%B7%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>新希望關懷中心</t>
+    <t>新希望关怀中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
@@ -527,37 +524,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%83%E5%8D%87%E5%80%BC%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>日元升值蕭條</t>
+    <t>日元升值萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>Template talk-就業</t>
+    <t>Template talk-就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
   </si>
   <si>
-    <t>僱傭</t>
+    <t>僱佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>勞動契約</t>
+    <t>劳动契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E8%A9%A6</t>
   </si>
   <si>
-    <t>面試</t>
+    <t>面试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E8%81%98</t>
@@ -569,19 +566,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%A0%AD_(%E6%8B%9B%E8%81%98)</t>
   </si>
   <si>
-    <t>獵頭 (招聘)</t>
+    <t>猎头 (招聘)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E7%94%A8%E6%9C%9F</t>
   </si>
   <si>
-    <t>試用期</t>
+    <t>试用期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%81%B7</t>
   </si>
   <si>
-    <t>全職</t>
+    <t>全职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E4%B9%9D%E6%99%9A%E4%BA%94</t>
@@ -593,25 +590,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%BC%E8%81%B7</t>
   </si>
   <si>
-    <t>兼職</t>
+    <t>兼职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AC%E4%BB%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>責任制</t>
+    <t>责任制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E7%8F%AD%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
   </si>
   <si>
-    <t>輪班工作制</t>
+    <t>轮班工作制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E6%80%A7%E5%B7%A5%E6%99%82</t>
   </si>
   <si>
-    <t>彈性工時</t>
+    <t>弹性工时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%8F%AD</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%99%82%E8%A6%8F%E7%AE%A1</t>
   </si>
   <si>
-    <t>工時規管</t>
+    <t>工时规管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%BE%8B%E4%B8%80%E4%BC%91</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%96%AA%E5%81%87</t>
   </si>
   <si>
-    <t>無薪假</t>
+    <t>无薪假</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A9%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%81%BD%E5%AE%B3%E5%81%9C%E6%AD%A2%E4%B8%8A%E7%8F%AD%E5%8F%8A%E4%B8%8A%E8%AA%B2%E4%BD%9C%E6%A5%AD%E8%BE%A6%E6%B3%95</t>
   </si>
   <si>
-    <t>天然災害停止上班及上課作業辦法</t>
+    <t>天然灾害停止上班及上课作业办法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%81%87%E8%88%87%E8%82%B2%E5%AC%B0%E5%81%87</t>
   </si>
   <si>
-    <t>產假與育嬰假</t>
+    <t>产假与育婴假</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%A4</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E7%97%85</t>
@@ -689,25 +686,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8B%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>過勞死</t>
+    <t>过劳死</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B_(%E9%86%AB%E5%AD%B8)</t>
   </si>
   <si>
-    <t>壓力 (醫學)</t>
+    <t>压力 (医学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E5%A0%B4%E9%9C%B8%E5%87%8C</t>
   </si>
   <si>
-    <t>職場霸凌</t>
+    <t>职场霸凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E4%BF%9D%E9%9A%AA_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>勞工保險 (中華民國)</t>
+    <t>劳工保险 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E9%99%A9%E4%B8%80%E9%87%91</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>員工福利</t>
+    <t>员工福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8D%88%E8%8C%B6</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%AF%80%E7%8D%8E%E9%87%91</t>
   </si>
   <si>
-    <t>三節獎金</t>
+    <t>三节奖金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9A%E7%89%99</t>
@@ -761,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E9%A4%90%E9%A3%B2</t>
   </si>
   <si>
-    <t>員工餐飲</t>
+    <t>员工餐饮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E5%83%B9</t>
   </si>
   <si>
-    <t>員工價</t>
+    <t>员工价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%83%B1</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%93%A1</t>
   </si>
   <si>
-    <t>裁員</t>
+    <t>裁员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%B2%97</t>
@@ -791,19 +788,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E8%81%B7</t>
   </si>
   <si>
-    <t>辭職</t>
+    <t>辞职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E6%95%91%E5%8A%A9</t>
   </si>
   <si>
-    <t>失業救助</t>
+    <t>失业救助</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D</t>
@@ -833,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>經理</t>
+    <t>经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%99%82%E5%B7%A5</t>
   </si>
   <si>
-    <t>臨時工</t>
+    <t>临时工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A1%E6%B4%BE%E9%81%A3</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%AD%B8%E5%90%88%E4%BD%9C</t>
   </si>
   <si>
-    <t>產學合作</t>
+    <t>产学合作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%83%B1%E4%BA%BA%E5%A3%AB</t>
@@ -887,49 +884,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%B7%E6%A5%AD%E8%80%85</t>
   </si>
   <si>
-    <t>自由職業者</t>
+    <t>自由职业者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>居家就業</t>
+    <t>居家就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%90%88%E5%90%8C%E4%BA%BA</t>
   </si>
   <si>
-    <t>獨立合同人</t>
+    <t>独立合同人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E9%A1%98%E8%80%85</t>
   </si>
   <si>
-    <t>志願者</t>
+    <t>志愿者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E5%8D%94%E5%95%86</t>
   </si>
   <si>
-    <t>集體協商</t>
+    <t>集体协商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%95%B6%E5%8B%9E%E5%8B%95%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>不當勞動行為</t>
+    <t>不当劳动行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>勞工運動</t>
+    <t>劳工运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A5%E5%B7%A5</t>
@@ -941,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%89%E5%83%B9%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>廉價勞工</t>
+    <t>廉价劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B8%82%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>黑市勞工</t>
+    <t>黑市劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%B4%A9%E5%8D%96</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E8%BF%AB%E5%8B%9E%E5%8B%95</t>
   </si>
   <si>
-    <t>強迫勞動</t>
+    <t>强迫劳动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E8%BA%AB%E5%B7%A5</t>
@@ -977,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AD%A7%E8%A6%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>性別歧視主義</t>
+    <t>性别歧视主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
   </si>
   <si>
-    <t>層壓式推銷</t>
+    <t>层压式推销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E4%B9%A0</t>
@@ -995,37 +992,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A3%E6%95%A3%E8%B2%BB</t>
   </si>
   <si>
-    <t>遣散費</t>
+    <t>遣散费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E8%B3%87%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>勞資爭議</t>
+    <t>劳资争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E6%A5%AD%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>競業條款</t>
+    <t>竞业条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E8%B2%A7%E7%AA%AE</t>
   </si>
   <si>
-    <t>工作貧窮</t>
+    <t>工作贫穷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%97%E9%82%8A%E6%97%8F</t>
   </si>
   <si>
-    <t>窗邊族</t>
+    <t>窗边族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E5%AE%A4%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>辦公室政治</t>
+    <t>办公室政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD</t>
@@ -1187,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F%E5%AE%89%E5%85%A8</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>棲息地破壞</t>
+    <t>栖息地破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%B7%E5%BE%99</t>
   </si>
   <si>
-    <t>人口遷徙</t>
+    <t>人口迁徙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -1265,13 +1262,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -1295,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%B0%8F%E5%B0%8F%E7%9A%84%E5%BB%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>一個小小的建議</t>
+    <t>一个小小的建议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E9%95%BF%E7%9A%84%E6%9E%81%E9%99%90</t>
@@ -1373,13 +1370,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -1403,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1427,9 +1424,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>财政政策</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
@@ -1445,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -1511,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -1541,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
@@ -1559,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1583,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
@@ -3651,7 +3645,7 @@
         <v>117</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
         <v>8</v>
@@ -3677,10 +3671,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3706,10 +3700,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3735,10 +3729,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3764,10 +3758,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -3793,10 +3787,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>9</v>
@@ -3822,10 +3816,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>13</v>
@@ -3851,10 +3845,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -3880,10 +3874,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3909,10 +3903,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3938,10 +3932,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3967,10 +3961,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3996,10 +3990,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -4025,10 +4019,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4054,10 +4048,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4083,10 +4077,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4112,10 +4106,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4141,10 +4135,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4170,10 +4164,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4199,10 +4193,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4228,10 +4222,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4257,10 +4251,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4315,10 +4309,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4344,10 +4338,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4373,10 +4367,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4402,10 +4396,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4431,10 +4425,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4460,10 +4454,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4489,10 +4483,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>10</v>
@@ -4518,10 +4512,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4547,10 +4541,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4576,10 +4570,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4605,10 +4599,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4634,10 +4628,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4663,10 +4657,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4721,10 +4715,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4750,10 +4744,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4779,10 +4773,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4808,10 +4802,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4837,10 +4831,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4866,10 +4860,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4895,10 +4889,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4924,10 +4918,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4953,10 +4947,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4982,10 +4976,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5011,10 +5005,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5040,10 +5034,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5069,10 +5063,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5098,10 +5092,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5127,10 +5121,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5156,10 +5150,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5185,10 +5179,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5214,10 +5208,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5243,10 +5237,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5272,10 +5266,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5301,10 +5295,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5330,10 +5324,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5359,10 +5353,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5388,10 +5382,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5417,10 +5411,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5446,10 +5440,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5475,10 +5469,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5504,10 +5498,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5533,10 +5527,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5562,10 +5556,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5591,10 +5585,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5620,10 +5614,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5649,10 +5643,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5678,10 +5672,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5707,10 +5701,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5736,10 +5730,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5765,10 +5759,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5794,10 +5788,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5823,10 +5817,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5852,10 +5846,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5881,10 +5875,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5910,10 +5904,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5939,10 +5933,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5968,10 +5962,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5997,10 +5991,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6026,10 +6020,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6055,10 +6049,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6084,10 +6078,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>190</v>
+      </c>
+      <c r="F143" t="s">
         <v>191</v>
-      </c>
-      <c r="F143" t="s">
-        <v>192</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6113,10 +6107,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6142,10 +6136,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6171,10 +6165,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6200,10 +6194,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6229,10 +6223,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6258,10 +6252,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6287,10 +6281,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6316,10 +6310,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6345,10 +6339,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6374,10 +6368,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6403,10 +6397,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6432,10 +6426,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6461,10 +6455,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6490,10 +6484,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6519,10 +6513,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6548,10 +6542,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6577,10 +6571,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6606,10 +6600,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6635,10 +6629,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6664,10 +6658,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6693,10 +6687,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6722,10 +6716,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6751,10 +6745,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6780,10 +6774,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6809,10 +6803,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>294</v>
+      </c>
+      <c r="F168" t="s">
         <v>295</v>
-      </c>
-      <c r="F168" t="s">
-        <v>296</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6838,10 +6832,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>322</v>
+      </c>
+      <c r="F169" t="s">
         <v>323</v>
-      </c>
-      <c r="F169" t="s">
-        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -6867,10 +6861,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>324</v>
+      </c>
+      <c r="F170" t="s">
         <v>325</v>
-      </c>
-      <c r="F170" t="s">
-        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6896,10 +6890,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>326</v>
+      </c>
+      <c r="F171" t="s">
         <v>327</v>
-      </c>
-      <c r="F171" t="s">
-        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6925,10 +6919,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>328</v>
+      </c>
+      <c r="F172" t="s">
         <v>329</v>
-      </c>
-      <c r="F172" t="s">
-        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6954,10 +6948,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
         <v>331</v>
-      </c>
-      <c r="F173" t="s">
-        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6983,10 +6977,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" t="s">
         <v>333</v>
-      </c>
-      <c r="F174" t="s">
-        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7012,10 +7006,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" t="s">
         <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7041,10 +7035,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7070,10 +7064,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>35</v>
@@ -7099,10 +7093,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7128,10 +7122,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7157,10 +7151,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" t="s">
         <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7186,10 +7180,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>346</v>
+      </c>
+      <c r="F181" t="s">
         <v>347</v>
-      </c>
-      <c r="F181" t="s">
-        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7215,10 +7209,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>348</v>
+      </c>
+      <c r="F182" t="s">
         <v>349</v>
-      </c>
-      <c r="F182" t="s">
-        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7244,10 +7238,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>350</v>
+      </c>
+      <c r="F183" t="s">
         <v>351</v>
-      </c>
-      <c r="F183" t="s">
-        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7273,10 +7267,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>352</v>
+      </c>
+      <c r="F184" t="s">
         <v>353</v>
-      </c>
-      <c r="F184" t="s">
-        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7302,10 +7296,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" t="s">
         <v>355</v>
-      </c>
-      <c r="F185" t="s">
-        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7331,10 +7325,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7360,10 +7354,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7389,10 +7383,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7418,10 +7412,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7447,10 +7441,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7476,10 +7470,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7505,10 +7499,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7534,10 +7528,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
         <v>371</v>
-      </c>
-      <c r="F193" t="s">
-        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7563,10 +7557,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>372</v>
+      </c>
+      <c r="F194" t="s">
         <v>373</v>
-      </c>
-      <c r="F194" t="s">
-        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7592,10 +7586,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" t="s">
         <v>375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7621,10 +7615,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7650,10 +7644,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7679,10 +7673,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7708,10 +7702,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7737,10 +7731,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
         <v>385</v>
-      </c>
-      <c r="F200" t="s">
-        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7766,10 +7760,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" t="s">
         <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7795,10 +7789,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
         <v>389</v>
-      </c>
-      <c r="F202" t="s">
-        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7824,10 +7818,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
         <v>391</v>
-      </c>
-      <c r="F203" t="s">
-        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7853,10 +7847,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
         <v>393</v>
-      </c>
-      <c r="F204" t="s">
-        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7882,10 +7876,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
         <v>395</v>
-      </c>
-      <c r="F205" t="s">
-        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7911,10 +7905,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>396</v>
+      </c>
+      <c r="F206" t="s">
         <v>397</v>
-      </c>
-      <c r="F206" t="s">
-        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7940,10 +7934,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>398</v>
+      </c>
+      <c r="F207" t="s">
         <v>399</v>
-      </c>
-      <c r="F207" t="s">
-        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7969,10 +7963,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>400</v>
+      </c>
+      <c r="F208" t="s">
         <v>401</v>
-      </c>
-      <c r="F208" t="s">
-        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7998,10 +7992,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>402</v>
+      </c>
+      <c r="F209" t="s">
         <v>403</v>
-      </c>
-      <c r="F209" t="s">
-        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -8027,10 +8021,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>404</v>
+      </c>
+      <c r="F210" t="s">
         <v>405</v>
-      </c>
-      <c r="F210" t="s">
-        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8056,10 +8050,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>406</v>
+      </c>
+      <c r="F211" t="s">
         <v>407</v>
-      </c>
-      <c r="F211" t="s">
-        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8085,10 +8079,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>408</v>
+      </c>
+      <c r="F212" t="s">
         <v>409</v>
-      </c>
-      <c r="F212" t="s">
-        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8114,10 +8108,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>410</v>
+      </c>
+      <c r="F213" t="s">
         <v>411</v>
-      </c>
-      <c r="F213" t="s">
-        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8143,10 +8137,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>412</v>
+      </c>
+      <c r="F214" t="s">
         <v>413</v>
-      </c>
-      <c r="F214" t="s">
-        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8172,10 +8166,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>414</v>
+      </c>
+      <c r="F215" t="s">
         <v>415</v>
-      </c>
-      <c r="F215" t="s">
-        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8201,10 +8195,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>416</v>
+      </c>
+      <c r="F216" t="s">
         <v>417</v>
-      </c>
-      <c r="F216" t="s">
-        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8230,10 +8224,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" t="s">
         <v>419</v>
-      </c>
-      <c r="F217" t="s">
-        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8259,10 +8253,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>420</v>
+      </c>
+      <c r="F218" t="s">
         <v>421</v>
-      </c>
-      <c r="F218" t="s">
-        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8288,10 +8282,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>422</v>
+      </c>
+      <c r="F219" t="s">
         <v>423</v>
-      </c>
-      <c r="F219" t="s">
-        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8317,10 +8311,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>424</v>
+      </c>
+      <c r="F220" t="s">
         <v>425</v>
-      </c>
-      <c r="F220" t="s">
-        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8346,10 +8340,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>426</v>
+      </c>
+      <c r="F221" t="s">
         <v>427</v>
-      </c>
-      <c r="F221" t="s">
-        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8375,10 +8369,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>428</v>
+      </c>
+      <c r="F222" t="s">
         <v>429</v>
-      </c>
-      <c r="F222" t="s">
-        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8404,10 +8398,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>430</v>
+      </c>
+      <c r="F223" t="s">
         <v>431</v>
-      </c>
-      <c r="F223" t="s">
-        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8433,10 +8427,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>432</v>
+      </c>
+      <c r="F224" t="s">
         <v>433</v>
-      </c>
-      <c r="F224" t="s">
-        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8462,10 +8456,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>434</v>
+      </c>
+      <c r="F225" t="s">
         <v>435</v>
-      </c>
-      <c r="F225" t="s">
-        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8491,10 +8485,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>436</v>
+      </c>
+      <c r="F226" t="s">
         <v>437</v>
-      </c>
-      <c r="F226" t="s">
-        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8520,10 +8514,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>438</v>
+      </c>
+      <c r="F227" t="s">
         <v>439</v>
-      </c>
-      <c r="F227" t="s">
-        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8549,10 +8543,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>440</v>
+      </c>
+      <c r="F228" t="s">
         <v>441</v>
-      </c>
-      <c r="F228" t="s">
-        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -8578,10 +8572,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>442</v>
+      </c>
+      <c r="F229" t="s">
         <v>443</v>
-      </c>
-      <c r="F229" t="s">
-        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8607,10 +8601,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>444</v>
+      </c>
+      <c r="F230" t="s">
         <v>445</v>
-      </c>
-      <c r="F230" t="s">
-        <v>446</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8636,10 +8630,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>446</v>
+      </c>
+      <c r="F231" t="s">
         <v>447</v>
-      </c>
-      <c r="F231" t="s">
-        <v>448</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8665,10 +8659,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>448</v>
+      </c>
+      <c r="F232" t="s">
         <v>449</v>
-      </c>
-      <c r="F232" t="s">
-        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8694,10 +8688,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>450</v>
+      </c>
+      <c r="F233" t="s">
         <v>451</v>
-      </c>
-      <c r="F233" t="s">
-        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8723,10 +8717,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>452</v>
+      </c>
+      <c r="F234" t="s">
         <v>453</v>
-      </c>
-      <c r="F234" t="s">
-        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8752,10 +8746,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>454</v>
+      </c>
+      <c r="F235" t="s">
         <v>455</v>
-      </c>
-      <c r="F235" t="s">
-        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8781,10 +8775,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>456</v>
+      </c>
+      <c r="F236" t="s">
         <v>457</v>
-      </c>
-      <c r="F236" t="s">
-        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8810,10 +8804,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>458</v>
+      </c>
+      <c r="F237" t="s">
         <v>459</v>
-      </c>
-      <c r="F237" t="s">
-        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8839,10 +8833,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>460</v>
+      </c>
+      <c r="F238" t="s">
         <v>461</v>
-      </c>
-      <c r="F238" t="s">
-        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8868,10 +8862,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>462</v>
+      </c>
+      <c r="F239" t="s">
         <v>463</v>
-      </c>
-      <c r="F239" t="s">
-        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8897,10 +8891,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>464</v>
+      </c>
+      <c r="F240" t="s">
         <v>465</v>
-      </c>
-      <c r="F240" t="s">
-        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8926,10 +8920,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>466</v>
+      </c>
+      <c r="F241" t="s">
         <v>467</v>
-      </c>
-      <c r="F241" t="s">
-        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8955,10 +8949,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>74</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8984,10 +8978,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9013,10 +9007,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9042,10 +9036,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9071,10 +9065,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9100,10 +9094,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9129,10 +9123,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9158,10 +9152,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9187,10 +9181,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9216,10 +9210,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9245,10 +9239,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9274,10 +9268,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9303,10 +9297,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9332,10 +9326,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9361,10 +9355,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9390,10 +9384,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9419,10 +9413,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9448,10 +9442,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9477,10 +9471,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9506,10 +9500,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9535,10 +9529,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9564,10 +9558,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9593,10 +9587,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -9622,10 +9616,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9651,10 +9645,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9680,10 +9674,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9709,10 +9703,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9738,10 +9732,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9767,10 +9761,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>13</v>
@@ -9796,10 +9790,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>523</v>
+      </c>
+      <c r="F271" t="s">
         <v>525</v>
-      </c>
-      <c r="F271" t="s">
-        <v>527</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
